--- a/StructureDefinition-age.xlsx
+++ b/StructureDefinition-age.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age.xlsx
+++ b/StructureDefinition-age.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age.xlsx
+++ b/StructureDefinition-age.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
